--- a/src/assets/templates/team-import-template.xlsx
+++ b/src/assets/templates/team-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niktopler/Desktop/School/4.Letnik/Spletnik/FootballNews/src/assets/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C16BD92-A326-2643-A04D-EC54C126A02B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FF9CB2-D180-0849-AE43-67D761D1F4D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>RM</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Continent</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,10 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -156,17 +165,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E486070F-4FEB-E440-B8D7-67153632FC05}" name="Table1" displayName="Table1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{016D4495-1A40-1A49-B4D7-3D7A9C8ED57E}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E486070F-4FEB-E440-B8D7-67153632FC05}" name="Table1" displayName="Table1" ref="A1:I4" totalsRowShown="0">
+  <autoFilter ref="A1:I4" xr:uid="{016D4495-1A40-1A49-B4D7-3D7A9C8ED57E}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{DB394FCB-E29B-8D40-B940-63644F87B6DA}" name="Name"/>
     <tableColumn id="2" xr3:uid="{35816446-B5B5-AD48-A56C-10AFDEDED35B}" name="Team id"/>
     <tableColumn id="3" xr3:uid="{D24BE9E4-F299-5F42-A5FB-5AEB2638890B}" name="Short code"/>
     <tableColumn id="4" xr3:uid="{701F69E8-B992-AE47-8373-BB0E69B1DE42}" name="Logo"/>
     <tableColumn id="5" xr3:uid="{5BF7E3C9-7D47-EA43-8B77-BDBF1796A113}" name="Country"/>
-    <tableColumn id="6" xr3:uid="{88358192-BDE3-E54F-BAB2-A828DFA36C92}" name="League"/>
-    <tableColumn id="7" xr3:uid="{B7263F44-DF11-0840-9713-F64FA6DE7E83}" name="Season start date" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{BC8B0FF8-3571-BA4A-8338-05F3FFCF5BEB}" name="Season end date" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{88358192-BDE3-E54F-BAB2-A828DFA36C92}" name="Continent"/>
+    <tableColumn id="7" xr3:uid="{B7263F44-DF11-0840-9713-F64FA6DE7E83}" name="League" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{BC8B0FF8-3571-BA4A-8338-05F3FFCF5BEB}" name="Season start date" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{DA21C66B-AC94-F64F-9998-806EDAE817B8}" name="Season end date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,12 +456,13 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="54.6640625" customWidth="1"/>
     <col min="4" max="4" width="57.5" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,16 +479,19 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -494,16 +508,19 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>44087</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>44340</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -520,16 +537,19 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>44087</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>44340</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -546,12 +566,15 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>44087</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>44340</v>
       </c>
     </row>
